--- a/ブログ更新・削除_単体テスト.xlsx
+++ b/ブログ更新・削除_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CE3559-E683-4927-9555-9803F592002C}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73CF405-1786-4216-AB50-208B7CED426A}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2990" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="4110" yWindow="3400" windowWidth="16920" windowHeight="10340" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ更新画面" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="168">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1980,6 +1980,16 @@
   </si>
   <si>
     <t>○○/500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2018,7 +2028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2054,26 +2064,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2090,9 +2087,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -3707,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3719,13 +3713,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3736,7 +3730,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3745,7 +3739,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3754,12 +3748,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3813,8 +3807,8 @@
       <c r="F8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -3851,8 +3845,8 @@
       <c r="F10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>63</v>
@@ -3889,8 +3883,8 @@
       <c r="F12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -3927,8 +3921,8 @@
       <c r="F14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>63</v>
@@ -3963,8 +3957,8 @@
       <c r="F16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>63</v>
@@ -3999,8 +3993,8 @@
       <c r="F18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -4037,8 +4031,8 @@
       <c r="F20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
@@ -4075,8 +4069,8 @@
       <c r="F22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="4">
-        <v>45992</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>63</v>
@@ -4113,8 +4107,8 @@
       <c r="F24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="4">
-        <v>45992</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>63</v>
@@ -4151,8 +4145,8 @@
       <c r="F26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="4">
-        <v>45992</v>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>63</v>
@@ -4189,8 +4183,8 @@
       <c r="F28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="4">
-        <v>45992</v>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>63</v>
@@ -4225,8 +4219,8 @@
       <c r="F30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="4">
-        <v>45998</v>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>63</v>
@@ -4263,8 +4257,8 @@
       <c r="F32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="4">
-        <v>45992</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>63</v>
@@ -4301,8 +4295,8 @@
       <c r="F34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="6">
-        <v>45992</v>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>63</v>
@@ -4339,8 +4333,8 @@
       <c r="F36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="4">
-        <v>45992</v>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>63</v>
@@ -4394,7 +4388,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4405,7 +4399,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -4414,7 +4408,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4423,7 +4417,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -5414,7 +5408,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="E10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5425,13 +5419,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5442,7 +5436,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +5445,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5460,12 +5454,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5519,8 +5513,8 @@
       <c r="F8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -5570,8 +5564,8 @@
       <c r="F11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="4">
-        <v>45992</v>
+      <c r="G11" s="3">
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>63</v>
@@ -5621,8 +5615,8 @@
       <c r="F14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>63</v>
@@ -5672,8 +5666,8 @@
       <c r="F17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="4">
-        <v>45992</v>
+      <c r="G17" s="3">
+        <v>46016</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
@@ -5718,13 +5712,13 @@
         <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
@@ -5742,7 +5736,7 @@
         <v>153</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
@@ -5776,8 +5770,8 @@
       <c r="F23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="4">
-        <v>45992</v>
+      <c r="G23" s="3">
+        <v>46016</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>63</v>
@@ -5814,8 +5808,8 @@
       <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="4">
-        <v>45998</v>
+      <c r="G25" s="3">
+        <v>46016</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>63</v>
@@ -5852,8 +5846,8 @@
       <c r="F27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="4">
-        <v>45992</v>
+      <c r="G27" s="3">
+        <v>46016</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>63</v>
@@ -5903,8 +5897,8 @@
       <c r="F30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="4">
-        <v>45992</v>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>63</v>
@@ -5940,7 +5934,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5951,13 +5945,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5968,7 +5962,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +5971,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5986,12 +5980,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6045,8 +6039,8 @@
       <c r="F8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>63</v>
@@ -6083,8 +6077,8 @@
       <c r="F10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>63</v>
@@ -6121,8 +6115,8 @@
       <c r="F12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -6159,8 +6153,8 @@
       <c r="F14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>63</v>
@@ -6197,8 +6191,8 @@
       <c r="F16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>63</v>
@@ -6235,8 +6229,8 @@
       <c r="F18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -6273,8 +6267,8 @@
       <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="4">
-        <v>45998</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
@@ -6311,8 +6305,8 @@
       <c r="F22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="4">
-        <v>45992</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>63</v>
@@ -6367,7 +6361,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6378,7 +6372,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -6387,7 +6381,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6396,7 +6390,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -6758,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6770,13 +6764,13 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6787,7 +6781,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -6796,7 +6790,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6805,12 +6799,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6864,8 +6858,8 @@
       <c r="F9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="4">
-        <v>45992</v>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>63</v>
@@ -6915,8 +6909,8 @@
       <c r="F12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -6966,8 +6960,8 @@
       <c r="F15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="4">
-        <v>45992</v>
+      <c r="G15" s="3">
+        <v>46016</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>63</v>
@@ -7017,8 +7011,8 @@
       <c r="F18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="4">
-        <v>45998</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -7055,8 +7049,8 @@
       <c r="F20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
